--- a/src/test/java/datasheet.xlsx
+++ b/src/test/java/datasheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praka\eclipse-workspace\SeleniumCucumberPractice\src\test\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463329E8-6F93-4D64-B38A-E293D81DE616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB90B37-0AB1-45F3-A75B-0669DD6882F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>a</t>
   </si>
@@ -147,12 +147,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -167,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -178,6 +190,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,10 +637,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6895395C-464D-4538-929B-9DC773ACE7B4}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -636,10 +650,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -664,6 +678,14 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>28</v>
       </c>
     </row>
